--- a/data/pca/factorExposure/factorExposure_2011-07-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.0245108811442534</v>
+        <v>-0.0152824340293996</v>
       </c>
       <c r="C2">
-        <v>-0.00507501605649446</v>
+        <v>0.001944532777902423</v>
       </c>
       <c r="D2">
-        <v>-0.06064923447842817</v>
+        <v>-0.001991354405648573</v>
       </c>
       <c r="E2">
-        <v>-0.02850639797079265</v>
+        <v>0.03549329623557617</v>
       </c>
       <c r="F2">
-        <v>0.02206673849048869</v>
+        <v>-0.006147320030446992</v>
       </c>
       <c r="G2">
-        <v>-0.04221081717036983</v>
+        <v>-0.02881497471469637</v>
       </c>
       <c r="H2">
-        <v>0.02492437256171306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02749402881973238</v>
+      </c>
+      <c r="I2">
+        <v>-0.009849319074616874</v>
+      </c>
+      <c r="J2">
+        <v>-0.07011925250342414</v>
+      </c>
+      <c r="K2">
+        <v>-0.01897624825145301</v>
+      </c>
+      <c r="L2">
+        <v>-0.05390454854418315</v>
+      </c>
+      <c r="M2">
+        <v>0.01552007590296008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06811357774015399</v>
+        <v>-0.09744049352492623</v>
       </c>
       <c r="C4">
-        <v>0.06535055280095291</v>
+        <v>-0.07242784413565062</v>
       </c>
       <c r="D4">
-        <v>-0.02632904403945719</v>
+        <v>-0.02182801434400027</v>
       </c>
       <c r="E4">
-        <v>-0.03730089817418286</v>
+        <v>0.04397612903202294</v>
       </c>
       <c r="F4">
-        <v>-0.03968179540644386</v>
+        <v>-0.0968507240178067</v>
       </c>
       <c r="G4">
-        <v>-0.01997357157677476</v>
+        <v>-0.01433646422511695</v>
       </c>
       <c r="H4">
-        <v>-0.02663770289049718</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.06682149090741676</v>
+      </c>
+      <c r="I4">
+        <v>-0.03484258820181497</v>
+      </c>
+      <c r="J4">
+        <v>0.04266286455178762</v>
+      </c>
+      <c r="K4">
+        <v>-0.03988754295643181</v>
+      </c>
+      <c r="L4">
+        <v>-0.01030829523043297</v>
+      </c>
+      <c r="M4">
+        <v>-0.01310569701364904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1274455996897617</v>
+        <v>-0.1309168840971283</v>
       </c>
       <c r="C6">
-        <v>0.04381457800548539</v>
+        <v>-0.04862832310821757</v>
       </c>
       <c r="D6">
-        <v>-0.06878293864773638</v>
+        <v>-0.0002652618806740982</v>
       </c>
       <c r="E6">
-        <v>-0.07866364396544656</v>
+        <v>0.03424901138656091</v>
       </c>
       <c r="F6">
-        <v>-0.0719156058305382</v>
+        <v>-0.0259871790837635</v>
       </c>
       <c r="G6">
-        <v>0.06403987199617538</v>
+        <v>0.1786042103485701</v>
       </c>
       <c r="H6">
-        <v>0.08805779370735922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.04951963150259679</v>
+      </c>
+      <c r="I6">
+        <v>-0.4301818930369078</v>
+      </c>
+      <c r="J6">
+        <v>0.07890470574358534</v>
+      </c>
+      <c r="K6">
+        <v>0.03234264632908607</v>
+      </c>
+      <c r="L6">
+        <v>0.09967453567843611</v>
+      </c>
+      <c r="M6">
+        <v>0.03999803615858236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06514360349951177</v>
+        <v>-0.0679772222191428</v>
       </c>
       <c r="C7">
-        <v>0.04945490221561345</v>
+        <v>-0.07249035145257256</v>
       </c>
       <c r="D7">
-        <v>-0.0576291270910583</v>
+        <v>-0.0008821851170120699</v>
       </c>
       <c r="E7">
-        <v>-0.02803185202028029</v>
+        <v>0.04570632569821198</v>
       </c>
       <c r="F7">
-        <v>-0.03958859747139735</v>
+        <v>-0.01638804350495416</v>
       </c>
       <c r="G7">
-        <v>0.03574679905440942</v>
+        <v>-0.005029445877080948</v>
       </c>
       <c r="H7">
-        <v>0.008590451397343594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.06318529308867653</v>
+      </c>
+      <c r="I7">
+        <v>0.05823388154600487</v>
+      </c>
+      <c r="J7">
+        <v>0.02709403306901129</v>
+      </c>
+      <c r="K7">
+        <v>-0.04465382836590572</v>
+      </c>
+      <c r="L7">
+        <v>-0.02318639932378524</v>
+      </c>
+      <c r="M7">
+        <v>-0.1065297083437077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02212741403766932</v>
+        <v>-0.03489168055961377</v>
       </c>
       <c r="C8">
-        <v>0.01357889942573518</v>
+        <v>-0.008536188180286673</v>
       </c>
       <c r="D8">
-        <v>-0.03644126558727034</v>
+        <v>-0.01816382946099002</v>
       </c>
       <c r="E8">
-        <v>-0.0706213538301055</v>
+        <v>0.05239085117648877</v>
       </c>
       <c r="F8">
-        <v>0.01647539353264002</v>
+        <v>-0.1015867626904827</v>
       </c>
       <c r="G8">
-        <v>0.005641961091798928</v>
+        <v>0.0007411489122160221</v>
       </c>
       <c r="H8">
-        <v>0.04001642905885399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.05792990264202796</v>
+      </c>
+      <c r="I8">
+        <v>-0.02503824452801348</v>
+      </c>
+      <c r="J8">
+        <v>0.05380965219662597</v>
+      </c>
+      <c r="K8">
+        <v>-0.08125643234811158</v>
+      </c>
+      <c r="L8">
+        <v>0.0070162998873965</v>
+      </c>
+      <c r="M8">
+        <v>0.06003908613839675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.06938732145970354</v>
+        <v>-0.08342763697080317</v>
       </c>
       <c r="C9">
-        <v>0.08034352532527322</v>
+        <v>-0.06843194471077196</v>
       </c>
       <c r="D9">
-        <v>-0.03430213640592716</v>
+        <v>-0.001164570107046211</v>
       </c>
       <c r="E9">
-        <v>-0.02607511998273917</v>
+        <v>0.02926968316614015</v>
       </c>
       <c r="F9">
-        <v>-0.01926119172164216</v>
+        <v>-0.09963216349899248</v>
       </c>
       <c r="G9">
-        <v>-0.01897473683404063</v>
+        <v>-0.00949654813173267</v>
       </c>
       <c r="H9">
-        <v>-0.02174192765783858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.07489458674454968</v>
+      </c>
+      <c r="I9">
+        <v>-0.02015796834951983</v>
+      </c>
+      <c r="J9">
+        <v>0.01674972432131</v>
+      </c>
+      <c r="K9">
+        <v>-0.02616455689544638</v>
+      </c>
+      <c r="L9">
+        <v>0.005609381928751416</v>
+      </c>
+      <c r="M9">
+        <v>-0.01695588792012403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06115127219495411</v>
+        <v>-0.1073655729711788</v>
       </c>
       <c r="C10">
-        <v>-0.1379978675662175</v>
+        <v>0.1707986459912457</v>
       </c>
       <c r="D10">
-        <v>-0.05450528020995372</v>
+        <v>-0.008636664097076962</v>
       </c>
       <c r="E10">
-        <v>-0.0271751558113868</v>
+        <v>0.04486247220006166</v>
       </c>
       <c r="F10">
-        <v>-0.01256557474825364</v>
+        <v>0.01780073076854635</v>
       </c>
       <c r="G10">
-        <v>0.04202140722930359</v>
+        <v>0.01132457695547993</v>
       </c>
       <c r="H10">
-        <v>0.04989284351672544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.00293221743673254</v>
+      </c>
+      <c r="I10">
+        <v>0.04639798873992178</v>
+      </c>
+      <c r="J10">
+        <v>-0.04059894425611336</v>
+      </c>
+      <c r="K10">
+        <v>0.02042615308864964</v>
+      </c>
+      <c r="L10">
+        <v>0.03353210270218791</v>
+      </c>
+      <c r="M10">
+        <v>-0.09515093055715987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06490097818904536</v>
+        <v>-0.06851903443065616</v>
       </c>
       <c r="C11">
-        <v>0.086454983771107</v>
+        <v>-0.07177995861952882</v>
       </c>
       <c r="D11">
-        <v>-0.04100760654472715</v>
+        <v>0.03176101178045342</v>
       </c>
       <c r="E11">
-        <v>-0.003717593711538385</v>
+        <v>0.02023811727683602</v>
       </c>
       <c r="F11">
-        <v>0.03196544475938585</v>
+        <v>-0.1038075998804717</v>
       </c>
       <c r="G11">
-        <v>-0.02477651592616168</v>
+        <v>-0.01105949973093689</v>
       </c>
       <c r="H11">
-        <v>-0.01177699059952205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.05734582821423319</v>
+      </c>
+      <c r="I11">
+        <v>0.07249372377191864</v>
+      </c>
+      <c r="J11">
+        <v>-0.046885969296008</v>
+      </c>
+      <c r="K11">
+        <v>0.02167435332559604</v>
+      </c>
+      <c r="L11">
+        <v>0.05053719032735978</v>
+      </c>
+      <c r="M11">
+        <v>-0.03672807357149607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.05872969791448475</v>
+        <v>-0.06961429171863885</v>
       </c>
       <c r="C12">
-        <v>0.0518230596426577</v>
+        <v>-0.06246087623271681</v>
       </c>
       <c r="D12">
-        <v>-0.0203641684391466</v>
+        <v>0.02983160740881854</v>
       </c>
       <c r="E12">
-        <v>-0.01200439876788096</v>
+        <v>0.01344829271781683</v>
       </c>
       <c r="F12">
-        <v>-0.01258771261750175</v>
+        <v>-0.1126325489395752</v>
       </c>
       <c r="G12">
-        <v>0.01252527352501874</v>
+        <v>-0.003686739196155562</v>
       </c>
       <c r="H12">
-        <v>-0.01885740360097268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.06974406722436619</v>
+      </c>
+      <c r="I12">
+        <v>0.06391563960919437</v>
+      </c>
+      <c r="J12">
+        <v>-0.04544214412624045</v>
+      </c>
+      <c r="K12">
+        <v>-0.02563005754249945</v>
+      </c>
+      <c r="L12">
+        <v>0.0921288009010531</v>
+      </c>
+      <c r="M12">
+        <v>-0.040145075942061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05035680939645057</v>
+        <v>-0.0501811289813969</v>
       </c>
       <c r="C13">
-        <v>0.02317112768686992</v>
+        <v>-0.03523859632308397</v>
       </c>
       <c r="D13">
-        <v>-0.001221087146649555</v>
+        <v>-0.02056237401528423</v>
       </c>
       <c r="E13">
-        <v>-0.01296037064771072</v>
+        <v>0.0140717011261262</v>
       </c>
       <c r="F13">
-        <v>0.008458630418794017</v>
+        <v>-0.04244672896218474</v>
       </c>
       <c r="G13">
-        <v>-0.02772905827167874</v>
+        <v>-0.02658252024402712</v>
       </c>
       <c r="H13">
-        <v>-0.03847483819109355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.03720944111210235</v>
+      </c>
+      <c r="I13">
+        <v>0.01018863651005558</v>
+      </c>
+      <c r="J13">
+        <v>0.05333907978096487</v>
+      </c>
+      <c r="K13">
+        <v>-0.07219576479283166</v>
+      </c>
+      <c r="L13">
+        <v>-0.01015685196047931</v>
+      </c>
+      <c r="M13">
+        <v>0.02486719915407695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.0419774211269331</v>
+        <v>-0.04542182319221579</v>
       </c>
       <c r="C14">
-        <v>0.02006681542613964</v>
+        <v>-0.02731946550393297</v>
       </c>
       <c r="D14">
-        <v>-0.02069125336323987</v>
+        <v>0.008487903189818955</v>
       </c>
       <c r="E14">
-        <v>-0.002873971404956524</v>
+        <v>0.01616492645224109</v>
       </c>
       <c r="F14">
-        <v>-0.05440226164655968</v>
+        <v>-0.04954934575572513</v>
       </c>
       <c r="G14">
-        <v>-0.00603234169316584</v>
+        <v>-0.0443069447165468</v>
       </c>
       <c r="H14">
-        <v>0.0330606580186669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.05752523184657512</v>
+      </c>
+      <c r="I14">
+        <v>-0.02770595359278428</v>
+      </c>
+      <c r="J14">
+        <v>0.04690554156985622</v>
+      </c>
+      <c r="K14">
+        <v>-0.02101849161002636</v>
+      </c>
+      <c r="L14">
+        <v>-0.019891218512062</v>
+      </c>
+      <c r="M14">
+        <v>-0.01894634634583198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03493794363292815</v>
+        <v>-0.0321739494324922</v>
       </c>
       <c r="C15">
-        <v>-0.004662330834254226</v>
+        <v>-0.009558679798341041</v>
       </c>
       <c r="D15">
-        <v>0.007734444291423495</v>
+        <v>-0.05682585780047221</v>
       </c>
       <c r="E15">
-        <v>-0.02709096127626413</v>
+        <v>0.004917086002298786</v>
       </c>
       <c r="F15">
-        <v>-0.02776511380722541</v>
+        <v>0.0008951875863180502</v>
       </c>
       <c r="G15">
-        <v>-0.004700041378605818</v>
+        <v>0.01779546308347641</v>
       </c>
       <c r="H15">
-        <v>-0.01529860019163681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.03164788807193106</v>
+      </c>
+      <c r="I15">
+        <v>-0.02874075062032897</v>
+      </c>
+      <c r="J15">
+        <v>0.08332941769166383</v>
+      </c>
+      <c r="K15">
+        <v>-0.01570256014811045</v>
+      </c>
+      <c r="L15">
+        <v>-0.003476062604255454</v>
+      </c>
+      <c r="M15">
+        <v>-0.01122613107205791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.04846148839516284</v>
+        <v>-0.07040368602761395</v>
       </c>
       <c r="C16">
-        <v>0.07893043277497155</v>
+        <v>-0.0784790439711287</v>
       </c>
       <c r="D16">
-        <v>-0.02751901568768123</v>
+        <v>0.01967955718204779</v>
       </c>
       <c r="E16">
-        <v>-0.02442895861523014</v>
+        <v>0.02225043561097607</v>
       </c>
       <c r="F16">
-        <v>-0.01992581106996871</v>
+        <v>-0.1038373138090576</v>
       </c>
       <c r="G16">
-        <v>-0.02363424618434511</v>
+        <v>-0.01490914798662264</v>
       </c>
       <c r="H16">
-        <v>0.0003441875070803522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.07794451651164401</v>
+      </c>
+      <c r="I16">
+        <v>0.06730546662742323</v>
+      </c>
+      <c r="J16">
+        <v>-0.03785590317740901</v>
+      </c>
+      <c r="K16">
+        <v>-0.01111453771870898</v>
+      </c>
+      <c r="L16">
+        <v>0.03306423888035233</v>
+      </c>
+      <c r="M16">
+        <v>-0.0379316613312163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.03936806609476477</v>
+        <v>-0.04215788689953103</v>
       </c>
       <c r="C20">
-        <v>0.04258978587662732</v>
+        <v>-0.03295069859081006</v>
       </c>
       <c r="D20">
-        <v>-0.02191815541858027</v>
+        <v>-0.02241516385528604</v>
       </c>
       <c r="E20">
-        <v>-0.01528169168656366</v>
+        <v>0.02120623745803739</v>
       </c>
       <c r="F20">
-        <v>-0.01966612904314577</v>
+        <v>-0.04864486788603689</v>
       </c>
       <c r="G20">
-        <v>-0.02594603374212366</v>
+        <v>-0.02432129128949622</v>
       </c>
       <c r="H20">
-        <v>-0.01592875009959611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.06365582004719939</v>
+      </c>
+      <c r="I20">
+        <v>0.002975710494866041</v>
+      </c>
+      <c r="J20">
+        <v>0.005730828554690138</v>
+      </c>
+      <c r="K20">
+        <v>-0.07005648589957057</v>
+      </c>
+      <c r="L20">
+        <v>0.02918287069140622</v>
+      </c>
+      <c r="M20">
+        <v>-0.01309963563016804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.008396708139497023</v>
+        <v>-0.02456975775777993</v>
       </c>
       <c r="C21">
-        <v>0.01426906824271138</v>
+        <v>-0.01369984129718457</v>
       </c>
       <c r="D21">
-        <v>0.01231109419477226</v>
+        <v>-0.01604802598143668</v>
       </c>
       <c r="E21">
-        <v>-0.07486441272274692</v>
+        <v>0.01445119010159455</v>
       </c>
       <c r="F21">
-        <v>0.005521734196482126</v>
+        <v>-0.05200347142577735</v>
       </c>
       <c r="G21">
-        <v>0.08359454662020421</v>
+        <v>0.1024400171173544</v>
       </c>
       <c r="H21">
-        <v>-0.01431977792183784</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.04405072599666906</v>
+      </c>
+      <c r="I21">
+        <v>-0.001393238341989712</v>
+      </c>
+      <c r="J21">
+        <v>0.07564321485235344</v>
+      </c>
+      <c r="K21">
+        <v>0.0005083551586004504</v>
+      </c>
+      <c r="L21">
+        <v>0.05391059283954841</v>
+      </c>
+      <c r="M21">
+        <v>-0.07217070455514807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.02954665702819087</v>
+        <v>-0.0443533763811171</v>
       </c>
       <c r="C22">
-        <v>0.06197651468680279</v>
+        <v>-0.03698498394107005</v>
       </c>
       <c r="D22">
-        <v>0.1244769696536388</v>
+        <v>-0.6567497145666777</v>
       </c>
       <c r="E22">
-        <v>-0.4655776833602817</v>
+        <v>0.06635601258326682</v>
       </c>
       <c r="F22">
-        <v>-0.1594642935288491</v>
+        <v>0.07944731524712341</v>
       </c>
       <c r="G22">
-        <v>-0.02970666161767196</v>
+        <v>-0.009167392685585446</v>
       </c>
       <c r="H22">
-        <v>-0.2993844086621752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.03544044733459729</v>
+      </c>
+      <c r="I22">
+        <v>0.01432591431972229</v>
+      </c>
+      <c r="J22">
+        <v>-0.09378149531340688</v>
+      </c>
+      <c r="K22">
+        <v>0.02202779315109756</v>
+      </c>
+      <c r="L22">
+        <v>-0.05661724599210249</v>
+      </c>
+      <c r="M22">
+        <v>-0.06720014616245999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.03044601000120158</v>
+        <v>-0.04508007008138262</v>
       </c>
       <c r="C23">
-        <v>0.06081588474834576</v>
+        <v>-0.03721303471140183</v>
       </c>
       <c r="D23">
-        <v>0.1239945326531194</v>
+        <v>-0.6583712856684875</v>
       </c>
       <c r="E23">
-        <v>-0.4671274329370267</v>
+        <v>0.06745907650358834</v>
       </c>
       <c r="F23">
-        <v>-0.1570035408219309</v>
+        <v>0.07483011005900989</v>
       </c>
       <c r="G23">
-        <v>-0.02877036443566352</v>
+        <v>-0.0093600427553248</v>
       </c>
       <c r="H23">
-        <v>-0.2954355814375927</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.03643626415973266</v>
+      </c>
+      <c r="I23">
+        <v>0.008940811478638776</v>
+      </c>
+      <c r="J23">
+        <v>-0.09418976955985112</v>
+      </c>
+      <c r="K23">
+        <v>0.02381712768180105</v>
+      </c>
+      <c r="L23">
+        <v>-0.05660505515541545</v>
+      </c>
+      <c r="M23">
+        <v>-0.0654564747505734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.06900880424035118</v>
+        <v>-0.07502459923020412</v>
       </c>
       <c r="C24">
-        <v>0.08010845990912223</v>
+        <v>-0.07647436534135334</v>
       </c>
       <c r="D24">
-        <v>-0.04490947370813884</v>
+        <v>0.01731043321898963</v>
       </c>
       <c r="E24">
-        <v>-0.03670726355347372</v>
+        <v>0.02539023263249018</v>
       </c>
       <c r="F24">
-        <v>0.01345046849576553</v>
+        <v>-0.1093887721205628</v>
       </c>
       <c r="G24">
-        <v>-0.01373533559379146</v>
+        <v>-0.003448352383225999</v>
       </c>
       <c r="H24">
-        <v>0.00130208814511961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.06328727365160505</v>
+      </c>
+      <c r="I24">
+        <v>0.04530919030869562</v>
+      </c>
+      <c r="J24">
+        <v>-0.05142795559191866</v>
+      </c>
+      <c r="K24">
+        <v>0.004743572100590718</v>
+      </c>
+      <c r="L24">
+        <v>0.06094447598389918</v>
+      </c>
+      <c r="M24">
+        <v>-0.04116146193388916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06057863505252465</v>
+        <v>-0.07206664943674246</v>
       </c>
       <c r="C25">
-        <v>0.0402645953623932</v>
+        <v>-0.04893995917085141</v>
       </c>
       <c r="D25">
-        <v>-0.04312838245944129</v>
+        <v>0.03062664189100704</v>
       </c>
       <c r="E25">
-        <v>-0.03969694732714004</v>
+        <v>0.02681017255883556</v>
       </c>
       <c r="F25">
-        <v>-0.001907409413020007</v>
+        <v>-0.1114487190614064</v>
       </c>
       <c r="G25">
-        <v>-0.03333068373180099</v>
+        <v>-0.02427664178459361</v>
       </c>
       <c r="H25">
-        <v>0.02145246496818614</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.07803003334339123</v>
+      </c>
+      <c r="I25">
+        <v>0.04100969597910778</v>
+      </c>
+      <c r="J25">
+        <v>-0.07390989636820766</v>
+      </c>
+      <c r="K25">
+        <v>0.009367838547785076</v>
+      </c>
+      <c r="L25">
+        <v>0.05079340684595628</v>
+      </c>
+      <c r="M25">
+        <v>-0.03559667739370868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.03530061294761536</v>
+        <v>-0.03988015530485316</v>
       </c>
       <c r="C26">
-        <v>0.02338659876862783</v>
+        <v>-0.02369428971505898</v>
       </c>
       <c r="D26">
-        <v>-0.03584970394659218</v>
+        <v>-0.01607122280170519</v>
       </c>
       <c r="E26">
-        <v>-0.002826840129315977</v>
+        <v>0.005619150573148286</v>
       </c>
       <c r="F26">
-        <v>-0.03783026931513193</v>
+        <v>-0.04163202705608122</v>
       </c>
       <c r="G26">
-        <v>0.009274576480562676</v>
+        <v>-0.007198847466838534</v>
       </c>
       <c r="H26">
-        <v>-0.02622948653368739</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.04163473868018084</v>
+      </c>
+      <c r="I26">
+        <v>0.009772977678700995</v>
+      </c>
+      <c r="J26">
+        <v>0.1241552188760362</v>
+      </c>
+      <c r="K26">
+        <v>-0.0380840621048071</v>
+      </c>
+      <c r="L26">
+        <v>-0.02529556841205232</v>
+      </c>
+      <c r="M26">
+        <v>-0.09245836273173273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1144063025728895</v>
+        <v>-0.1383585728447271</v>
       </c>
       <c r="C28">
-        <v>-0.296392789079351</v>
+        <v>0.2885082351593241</v>
       </c>
       <c r="D28">
-        <v>-0.04243509053254627</v>
+        <v>0.001141436887745021</v>
       </c>
       <c r="E28">
-        <v>-0.005527557675910149</v>
+        <v>0.02656872114645082</v>
       </c>
       <c r="F28">
-        <v>-0.02859208497645526</v>
+        <v>-0.001345289126408489</v>
       </c>
       <c r="G28">
-        <v>0.06776567049229684</v>
+        <v>0.02371363458913368</v>
       </c>
       <c r="H28">
-        <v>0.007689920344039611</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.005120692687812528</v>
+      </c>
+      <c r="I28">
+        <v>0.009569740545348508</v>
+      </c>
+      <c r="J28">
+        <v>0.03754987687842164</v>
+      </c>
+      <c r="K28">
+        <v>-0.01775229877499136</v>
+      </c>
+      <c r="L28">
+        <v>-0.02467834300461604</v>
+      </c>
+      <c r="M28">
+        <v>0.02617686041744411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04627557334974133</v>
+        <v>-0.04524505045421781</v>
       </c>
       <c r="C29">
-        <v>0.006922016825926423</v>
+        <v>-0.02208058399713302</v>
       </c>
       <c r="D29">
-        <v>-0.009646023175298014</v>
+        <v>-2.78097705349721e-05</v>
       </c>
       <c r="E29">
-        <v>-0.03148489361097061</v>
+        <v>0.01839564108654545</v>
       </c>
       <c r="F29">
-        <v>-0.03768714164681928</v>
+        <v>-0.0497095185468998</v>
       </c>
       <c r="G29">
-        <v>-0.02027861064152954</v>
+        <v>-0.05282098942752079</v>
       </c>
       <c r="H29">
-        <v>0.01056066684858805</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.047717347198205</v>
+      </c>
+      <c r="I29">
+        <v>-0.0234949515479909</v>
+      </c>
+      <c r="J29">
+        <v>0.02391036336471836</v>
+      </c>
+      <c r="K29">
+        <v>-0.02393532294189109</v>
+      </c>
+      <c r="L29">
+        <v>-0.01704320837913903</v>
+      </c>
+      <c r="M29">
+        <v>-0.01959952063788183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.118868871964373</v>
+        <v>-0.1031226082339215</v>
       </c>
       <c r="C30">
-        <v>0.07311903688511162</v>
+        <v>-0.06744622122141686</v>
       </c>
       <c r="D30">
-        <v>-0.07300764842545837</v>
+        <v>-5.489271576339308e-05</v>
       </c>
       <c r="E30">
-        <v>-0.04766677683908063</v>
+        <v>0.04862030999519112</v>
       </c>
       <c r="F30">
-        <v>-0.0496426691768196</v>
+        <v>-0.1652117578880253</v>
       </c>
       <c r="G30">
-        <v>0.01178283999776924</v>
+        <v>0.02809689280294023</v>
       </c>
       <c r="H30">
-        <v>-0.005744312766382505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1438173724208414</v>
+      </c>
+      <c r="I30">
+        <v>-0.004412554239158517</v>
+      </c>
+      <c r="J30">
+        <v>-0.04860101636876205</v>
+      </c>
+      <c r="K30">
+        <v>-0.312082863910874</v>
+      </c>
+      <c r="L30">
+        <v>-0.1693733069900769</v>
+      </c>
+      <c r="M30">
+        <v>0.1413069435208746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04759357186943345</v>
+        <v>-0.03418786647998763</v>
       </c>
       <c r="C31">
-        <v>0.02096512138170551</v>
+        <v>-0.04279781376278006</v>
       </c>
       <c r="D31">
-        <v>-0.005862726004973091</v>
+        <v>-0.005669662766771969</v>
       </c>
       <c r="E31">
-        <v>0.003985197177501301</v>
+        <v>-0.005507223756310665</v>
       </c>
       <c r="F31">
-        <v>-0.0242296220148278</v>
+        <v>-0.01553655512751519</v>
       </c>
       <c r="G31">
-        <v>-0.02239495099708043</v>
+        <v>-0.05244708290983828</v>
       </c>
       <c r="H31">
-        <v>-0.04006406492241303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03196634069526529</v>
+      </c>
+      <c r="I31">
+        <v>-0.002169304533833584</v>
+      </c>
+      <c r="J31">
+        <v>0.01330494016502195</v>
+      </c>
+      <c r="K31">
+        <v>-0.03048606764616176</v>
+      </c>
+      <c r="L31">
+        <v>0.02037104057861775</v>
+      </c>
+      <c r="M31">
+        <v>0.02228336627336137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.0238360124658526</v>
+        <v>-0.04734767621774466</v>
       </c>
       <c r="C32">
-        <v>-0.00715958149119328</v>
+        <v>0.003940097593874804</v>
       </c>
       <c r="D32">
-        <v>0.04563237561453359</v>
+        <v>-0.003274806289430584</v>
       </c>
       <c r="E32">
-        <v>-0.08504290968139912</v>
+        <v>-0.006720727367895407</v>
       </c>
       <c r="F32">
-        <v>0.008942989141212899</v>
+        <v>-0.08825121530726719</v>
       </c>
       <c r="G32">
-        <v>-0.01592482009297308</v>
+        <v>-0.008939872833604638</v>
       </c>
       <c r="H32">
-        <v>-0.04218347311402829</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.004587419911932881</v>
+      </c>
+      <c r="I32">
+        <v>0.05124860666550467</v>
+      </c>
+      <c r="J32">
+        <v>0.06432466910077259</v>
+      </c>
+      <c r="K32">
+        <v>-0.07933118316949689</v>
+      </c>
+      <c r="L32">
+        <v>-0.09659864954027697</v>
+      </c>
+      <c r="M32">
+        <v>0.1075685360562792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.09864466540567944</v>
+        <v>-0.09860304943927267</v>
       </c>
       <c r="C33">
-        <v>0.05887017523551762</v>
+        <v>-0.06750564226104001</v>
       </c>
       <c r="D33">
-        <v>-0.008652165499478802</v>
+        <v>0.005822748944363698</v>
       </c>
       <c r="E33">
-        <v>-0.0055141013658189</v>
+        <v>-0.01676681087472255</v>
       </c>
       <c r="F33">
-        <v>-0.01973158307081239</v>
+        <v>-0.07081392071103429</v>
       </c>
       <c r="G33">
-        <v>-0.03425237666135203</v>
+        <v>-0.04442760230617074</v>
       </c>
       <c r="H33">
-        <v>-0.03413906626346593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.04581571923093988</v>
+      </c>
+      <c r="I33">
+        <v>-0.01621118554255413</v>
+      </c>
+      <c r="J33">
+        <v>0.02665455907892958</v>
+      </c>
+      <c r="K33">
+        <v>-0.01000344249809925</v>
+      </c>
+      <c r="L33">
+        <v>0.033830487381215</v>
+      </c>
+      <c r="M33">
+        <v>0.01798058774227334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05131254582549565</v>
+        <v>-0.06302238666097769</v>
       </c>
       <c r="C34">
-        <v>0.07472265990627835</v>
+        <v>-0.06392302871940948</v>
       </c>
       <c r="D34">
-        <v>-0.02689171348152792</v>
+        <v>0.02760723723337535</v>
       </c>
       <c r="E34">
-        <v>-0.04216617858183294</v>
+        <v>0.01430427303138242</v>
       </c>
       <c r="F34">
-        <v>-0.008010992762686865</v>
+        <v>-0.09664667852641987</v>
       </c>
       <c r="G34">
-        <v>-0.01751192796888666</v>
+        <v>-0.02164653805477085</v>
       </c>
       <c r="H34">
-        <v>0.002551350637206919</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.0653958697026399</v>
+      </c>
+      <c r="I34">
+        <v>0.03766029528987718</v>
+      </c>
+      <c r="J34">
+        <v>-0.04398393966839373</v>
+      </c>
+      <c r="K34">
+        <v>0.003255905225887833</v>
+      </c>
+      <c r="L34">
+        <v>0.06071211560043235</v>
+      </c>
+      <c r="M34">
+        <v>-0.05428899750280401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.03693820101828939</v>
+        <v>-0.02992996475213008</v>
       </c>
       <c r="C35">
-        <v>0.01688390117725284</v>
+        <v>-0.02341907340967427</v>
       </c>
       <c r="D35">
-        <v>-0.007074979998134771</v>
+        <v>0.0003898635557261296</v>
       </c>
       <c r="E35">
-        <v>-0.02387359050563222</v>
+        <v>-0.001736443608311359</v>
       </c>
       <c r="F35">
-        <v>-0.03299098468253041</v>
+        <v>-0.01882970284998387</v>
       </c>
       <c r="G35">
-        <v>-0.02752930411324651</v>
+        <v>-0.025559850321751</v>
       </c>
       <c r="H35">
-        <v>-0.03918281102289937</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.05897758421643685</v>
+      </c>
+      <c r="I35">
+        <v>0.031593558866735</v>
+      </c>
+      <c r="J35">
+        <v>-0.009345407614623118</v>
+      </c>
+      <c r="K35">
+        <v>-0.05313645647669293</v>
+      </c>
+      <c r="L35">
+        <v>-0.01261446797865511</v>
+      </c>
+      <c r="M35">
+        <v>-0.004244970449438812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02511239564288165</v>
+        <v>-0.0303442710122368</v>
       </c>
       <c r="C36">
-        <v>0.01392691144492384</v>
+        <v>-0.01814490133762685</v>
       </c>
       <c r="D36">
-        <v>-0.02519851696913865</v>
+        <v>-0.01306733021622244</v>
       </c>
       <c r="E36">
-        <v>-0.02429877653799989</v>
+        <v>0.01952557062488386</v>
       </c>
       <c r="F36">
-        <v>-0.02019744604144407</v>
+        <v>-0.05470425638833747</v>
       </c>
       <c r="G36">
-        <v>-0.0178622830629619</v>
+        <v>-0.01761289630211463</v>
       </c>
       <c r="H36">
-        <v>-0.01174344302004923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.05503632543778113</v>
+      </c>
+      <c r="I36">
+        <v>-0.006865443326796655</v>
+      </c>
+      <c r="J36">
+        <v>0.03245726289030725</v>
+      </c>
+      <c r="K36">
+        <v>-0.02171778295615857</v>
+      </c>
+      <c r="L36">
+        <v>0.02820416634791681</v>
+      </c>
+      <c r="M36">
+        <v>-0.05173222928075514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.03986632414373758</v>
+        <v>-0.03373622853151542</v>
       </c>
       <c r="C38">
-        <v>0.02661732085324194</v>
+        <v>-0.0472574997549391</v>
       </c>
       <c r="D38">
-        <v>0.03259011764361106</v>
+        <v>-0.02524948155751728</v>
       </c>
       <c r="E38">
-        <v>-0.04763342502207341</v>
+        <v>0.002470419826480475</v>
       </c>
       <c r="F38">
-        <v>-0.003848775532537444</v>
+        <v>0.03954562937906897</v>
       </c>
       <c r="G38">
-        <v>0.008196808272562547</v>
+        <v>-0.02865087157535282</v>
       </c>
       <c r="H38">
-        <v>-0.03381284979697328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.07136627169333967</v>
+      </c>
+      <c r="I38">
+        <v>0.02636180100429385</v>
+      </c>
+      <c r="J38">
+        <v>0.06095455930390035</v>
+      </c>
+      <c r="K38">
+        <v>0.04194560765906779</v>
+      </c>
+      <c r="L38">
+        <v>-0.08918784503498113</v>
+      </c>
+      <c r="M38">
+        <v>0.007119368618142963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09279713129622931</v>
+        <v>-0.09509330181226401</v>
       </c>
       <c r="C39">
-        <v>0.09541444181599634</v>
+        <v>-0.08500905742933894</v>
       </c>
       <c r="D39">
-        <v>-0.01843869301194124</v>
+        <v>0.07623662860418103</v>
       </c>
       <c r="E39">
-        <v>-0.03746458054104088</v>
+        <v>0.006384287419458499</v>
       </c>
       <c r="F39">
-        <v>0.01594385480921129</v>
+        <v>-0.1467324689935829</v>
       </c>
       <c r="G39">
-        <v>-0.006244554406233491</v>
+        <v>-0.027504814174305</v>
       </c>
       <c r="H39">
-        <v>0.01326347750757526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.09258112917747467</v>
+      </c>
+      <c r="I39">
+        <v>0.1505889149688174</v>
+      </c>
+      <c r="J39">
+        <v>-0.1095212946751096</v>
+      </c>
+      <c r="K39">
+        <v>-0.08165059412924183</v>
+      </c>
+      <c r="L39">
+        <v>-0.03090441651441184</v>
+      </c>
+      <c r="M39">
+        <v>0.0231926469682127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.06083354086325283</v>
+        <v>-0.03862388845576618</v>
       </c>
       <c r="C40">
-        <v>0.02427802732640979</v>
+        <v>-0.05534999379412034</v>
       </c>
       <c r="D40">
-        <v>0.0207192057152869</v>
+        <v>-0.04860184490975315</v>
       </c>
       <c r="E40">
-        <v>-0.158686757344709</v>
+        <v>-0.008359591680009265</v>
       </c>
       <c r="F40">
-        <v>-0.05526394812767544</v>
+        <v>-0.1293553820114406</v>
       </c>
       <c r="G40">
-        <v>-0.03661576399156014</v>
+        <v>0.04350302405637733</v>
       </c>
       <c r="H40">
-        <v>0.004605780348034582</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.0109782635103269</v>
+      </c>
+      <c r="I40">
+        <v>0.07623277548310015</v>
+      </c>
+      <c r="J40">
+        <v>0.02144436696167074</v>
+      </c>
+      <c r="K40">
+        <v>-0.08375861561345926</v>
+      </c>
+      <c r="L40">
+        <v>-0.0662542164275552</v>
+      </c>
+      <c r="M40">
+        <v>-0.05489384215374058</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.0428746181655409</v>
+        <v>-0.03663232554301159</v>
       </c>
       <c r="C41">
-        <v>0.04772300550333632</v>
+        <v>-0.03682671504323666</v>
       </c>
       <c r="D41">
-        <v>-0.006847974066382533</v>
+        <v>0.01840838130883199</v>
       </c>
       <c r="E41">
-        <v>-0.006755976528757852</v>
+        <v>-0.0006076997407701043</v>
       </c>
       <c r="F41">
-        <v>-0.01545586390391105</v>
+        <v>-0.01757323668429339</v>
       </c>
       <c r="G41">
-        <v>-0.01505819372904258</v>
+        <v>-0.0226316673684786</v>
       </c>
       <c r="H41">
-        <v>-0.01536149596297326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.002817234720329494</v>
+      </c>
+      <c r="I41">
+        <v>0.02085741224145922</v>
+      </c>
+      <c r="J41">
+        <v>0.02796570794487052</v>
+      </c>
+      <c r="K41">
+        <v>-0.02546947928387534</v>
+      </c>
+      <c r="L41">
+        <v>0.009029755494750253</v>
+      </c>
+      <c r="M41">
+        <v>-0.00615094164355985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05326876148126432</v>
+        <v>-0.05209838208900289</v>
       </c>
       <c r="C43">
-        <v>0.04093077012348124</v>
+        <v>-0.0490552668583026</v>
       </c>
       <c r="D43">
-        <v>-0.02395762784323412</v>
+        <v>-0.01251042481403195</v>
       </c>
       <c r="E43">
-        <v>-0.0293505616855597</v>
+        <v>0.02045027619882906</v>
       </c>
       <c r="F43">
-        <v>-0.001307321675519858</v>
+        <v>-0.01607649271441815</v>
       </c>
       <c r="G43">
-        <v>0.005526165435836837</v>
+        <v>-0.04771052490638231</v>
       </c>
       <c r="H43">
-        <v>-0.06080997217250359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.004910000022444354</v>
+      </c>
+      <c r="I43">
+        <v>0.01920459505154765</v>
+      </c>
+      <c r="J43">
+        <v>0.003046696535006361</v>
+      </c>
+      <c r="K43">
+        <v>-0.005950412304569675</v>
+      </c>
+      <c r="L43">
+        <v>0.02991248200408754</v>
+      </c>
+      <c r="M43">
+        <v>0.009482682740837967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.04861494275111011</v>
+        <v>-0.08416307220202134</v>
       </c>
       <c r="C44">
-        <v>0.02503726060476376</v>
+        <v>-0.05866077791550606</v>
       </c>
       <c r="D44">
-        <v>-0.06086337263946505</v>
+        <v>-0.06438577120992914</v>
       </c>
       <c r="E44">
-        <v>-0.132428845689699</v>
+        <v>0.1013445109278931</v>
       </c>
       <c r="F44">
-        <v>-0.01638208981712354</v>
+        <v>-0.1676694656727427</v>
       </c>
       <c r="G44">
-        <v>-0.01036010816876872</v>
+        <v>-0.01814753843396707</v>
       </c>
       <c r="H44">
-        <v>0.03530308232112769</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.09683025145919645</v>
+      </c>
+      <c r="I44">
+        <v>0.04970262399444592</v>
+      </c>
+      <c r="J44">
+        <v>0.008494430834073564</v>
+      </c>
+      <c r="K44">
+        <v>-0.05220402046044467</v>
+      </c>
+      <c r="L44">
+        <v>-0.04862314583992991</v>
+      </c>
+      <c r="M44">
+        <v>-0.05200773180522779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.01966893001339644</v>
+        <v>-0.03926584952884887</v>
       </c>
       <c r="C46">
-        <v>0.03449465312761599</v>
+        <v>-0.04001251298926232</v>
       </c>
       <c r="D46">
-        <v>-0.01460276481399804</v>
+        <v>-0.03991054869101868</v>
       </c>
       <c r="E46">
-        <v>-0.05028034595090449</v>
+        <v>0.03081010405980773</v>
       </c>
       <c r="F46">
-        <v>-0.02186743679695563</v>
+        <v>-0.02216760949909595</v>
       </c>
       <c r="G46">
-        <v>-0.008701475883163404</v>
+        <v>-0.01809145386442128</v>
       </c>
       <c r="H46">
-        <v>0.01234988348879493</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.05440953931721697</v>
+      </c>
+      <c r="I46">
+        <v>-0.02381644994567665</v>
+      </c>
+      <c r="J46">
+        <v>0.066993514985662</v>
+      </c>
+      <c r="K46">
+        <v>-0.006442629782579475</v>
+      </c>
+      <c r="L46">
+        <v>-0.006228871483587377</v>
+      </c>
+      <c r="M46">
+        <v>-0.03878972168803092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02903650143885605</v>
+        <v>-0.04426075533331351</v>
       </c>
       <c r="C47">
-        <v>-0.006861009176485408</v>
+        <v>-0.02610953765661019</v>
       </c>
       <c r="D47">
-        <v>0.003672203495099054</v>
+        <v>-0.0203627465528437</v>
       </c>
       <c r="E47">
-        <v>-0.06156710062561632</v>
+        <v>0.004973481704974744</v>
       </c>
       <c r="F47">
-        <v>-0.03058989195751344</v>
+        <v>-0.03180725148059934</v>
       </c>
       <c r="G47">
-        <v>-0.03125198385896468</v>
+        <v>-0.03386560926522698</v>
       </c>
       <c r="H47">
-        <v>0.0007909387179171707</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.02246110205582186</v>
+      </c>
+      <c r="I47">
+        <v>-0.02589391221998136</v>
+      </c>
+      <c r="J47">
+        <v>-0.004359882200590525</v>
+      </c>
+      <c r="K47">
+        <v>-0.009947885508149819</v>
+      </c>
+      <c r="L47">
+        <v>0.04863997073345246</v>
+      </c>
+      <c r="M47">
+        <v>-0.02462470168408583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03409737384552699</v>
+        <v>-0.04211794099035277</v>
       </c>
       <c r="C48">
-        <v>0.02134273053276568</v>
+        <v>-0.0188343320386942</v>
       </c>
       <c r="D48">
-        <v>-0.005526794167547595</v>
+        <v>-0.01244610944040218</v>
       </c>
       <c r="E48">
-        <v>-0.04146375564614817</v>
+        <v>-0.0002789518003216551</v>
       </c>
       <c r="F48">
-        <v>-0.03383833511823234</v>
+        <v>-0.05751371887021672</v>
       </c>
       <c r="G48">
-        <v>-0.01472680611950026</v>
+        <v>0.004077056811268496</v>
       </c>
       <c r="H48">
-        <v>-0.04313227380232573</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.06807935213618753</v>
+      </c>
+      <c r="I48">
+        <v>0.01952688777055081</v>
+      </c>
+      <c r="J48">
+        <v>0.01714193715405205</v>
+      </c>
+      <c r="K48">
+        <v>-0.05881181269315659</v>
+      </c>
+      <c r="L48">
+        <v>0.02759390811309999</v>
+      </c>
+      <c r="M48">
+        <v>-0.03093779838213432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1867865242916051</v>
+        <v>-0.2233091517302605</v>
       </c>
       <c r="C49">
-        <v>0.1167836837924804</v>
+        <v>-0.0825652277162215</v>
       </c>
       <c r="D49">
-        <v>-0.07805604370442577</v>
+        <v>0.06898803616869258</v>
       </c>
       <c r="E49">
-        <v>0.07408604170516302</v>
+        <v>0.02670789567190506</v>
       </c>
       <c r="F49">
-        <v>-0.0539013699085238</v>
+        <v>0.2243219347205475</v>
       </c>
       <c r="G49">
-        <v>0.1702827590497086</v>
+        <v>0.198385803717713</v>
       </c>
       <c r="H49">
-        <v>0.082184666508508</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.0324335923301427</v>
+      </c>
+      <c r="I49">
+        <v>0.1302104748897636</v>
+      </c>
+      <c r="J49">
+        <v>-0.1099921506473572</v>
+      </c>
+      <c r="K49">
+        <v>0.2153962613364355</v>
+      </c>
+      <c r="L49">
+        <v>0.01601820686435567</v>
+      </c>
+      <c r="M49">
+        <v>-0.07214169362768678</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05386008203444216</v>
+        <v>-0.04308124438032577</v>
       </c>
       <c r="C50">
-        <v>0.03073524019369801</v>
+        <v>-0.04324222975554637</v>
       </c>
       <c r="D50">
-        <v>-0.009475360810024628</v>
+        <v>-0.0019940652679068</v>
       </c>
       <c r="E50">
-        <v>-0.01739030396417183</v>
+        <v>-0.01072972454701561</v>
       </c>
       <c r="F50">
-        <v>-0.04328459708570346</v>
+        <v>-0.04097584199927867</v>
       </c>
       <c r="G50">
-        <v>-0.05227892390635495</v>
+        <v>-0.05215845030202828</v>
       </c>
       <c r="H50">
-        <v>-0.01364577193040955</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03314034166872913</v>
+      </c>
+      <c r="I50">
+        <v>-0.04383196859582543</v>
+      </c>
+      <c r="J50">
+        <v>0.01735472376807545</v>
+      </c>
+      <c r="K50">
+        <v>-0.03028469738766066</v>
+      </c>
+      <c r="L50">
+        <v>-0.04044132501898141</v>
+      </c>
+      <c r="M50">
+        <v>-0.01215112170458941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02389857594089029</v>
+        <v>-0.03150612140846309</v>
       </c>
       <c r="C51">
-        <v>0.007329836085401191</v>
+        <v>-0.004489734972946932</v>
       </c>
       <c r="D51">
-        <v>0.003200105359054441</v>
+        <v>0.002440354864968788</v>
       </c>
       <c r="E51">
-        <v>-0.01569223637082784</v>
+        <v>0.02075386000416928</v>
       </c>
       <c r="F51">
-        <v>0.00696254458365015</v>
+        <v>0.01607140368639027</v>
       </c>
       <c r="G51">
-        <v>0.01944355452433427</v>
+        <v>0.01174623405957344</v>
       </c>
       <c r="H51">
-        <v>0.0312753250920083</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.01348852543283783</v>
+      </c>
+      <c r="I51">
+        <v>0.0431914392521389</v>
+      </c>
+      <c r="J51">
+        <v>-0.07137551065703265</v>
+      </c>
+      <c r="K51">
+        <v>0.03405295466861862</v>
+      </c>
+      <c r="L51">
+        <v>0.0297385327917279</v>
+      </c>
+      <c r="M51">
+        <v>0.07896044569530458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.0004351417859833346</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.001129964091041533</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.0133514400520656</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.002070185932311803</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.006771913106633985</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.001549789848712163</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.001724875836955958</v>
+      </c>
+      <c r="I52">
+        <v>0.004372407045798299</v>
+      </c>
+      <c r="J52">
+        <v>-0.004574612326866189</v>
+      </c>
+      <c r="K52">
+        <v>0.002358395902080544</v>
+      </c>
+      <c r="L52">
+        <v>-0.0003620457813743636</v>
+      </c>
+      <c r="M52">
+        <v>0.001906697446684548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1674654986552822</v>
+        <v>-0.1530103385851839</v>
       </c>
       <c r="C53">
-        <v>0.02233015016545989</v>
+        <v>-0.04991260283185144</v>
       </c>
       <c r="D53">
-        <v>-0.03616464986596952</v>
+        <v>0.01702548543881856</v>
       </c>
       <c r="E53">
-        <v>0.06141765108178754</v>
+        <v>-0.00639206460961922</v>
       </c>
       <c r="F53">
-        <v>0.09028896544272572</v>
+        <v>0.06525815386220446</v>
       </c>
       <c r="G53">
-        <v>-0.2605385393049517</v>
+        <v>-0.2399823704331127</v>
       </c>
       <c r="H53">
-        <v>-0.05664111232982139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.07249256637279035</v>
+      </c>
+      <c r="I53">
+        <v>-0.0891588309301426</v>
+      </c>
+      <c r="J53">
+        <v>0.00248724279930001</v>
+      </c>
+      <c r="K53">
+        <v>0.04620771619759409</v>
+      </c>
+      <c r="L53">
+        <v>-0.08994042257003333</v>
+      </c>
+      <c r="M53">
+        <v>0.05422456552954726</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05074106509055071</v>
+        <v>-0.05529912051750239</v>
       </c>
       <c r="C54">
-        <v>0.03538422283058473</v>
+        <v>-0.03025979540644732</v>
       </c>
       <c r="D54">
-        <v>-0.03615221304689765</v>
+        <v>-0.01688005752178484</v>
       </c>
       <c r="E54">
-        <v>-0.03035867248453997</v>
+        <v>0.01925905112402573</v>
       </c>
       <c r="F54">
-        <v>-0.01356454237745261</v>
+        <v>-0.0967019552361976</v>
       </c>
       <c r="G54">
-        <v>-0.0024516428035008</v>
+        <v>-0.02033749737815605</v>
       </c>
       <c r="H54">
-        <v>-0.02669066542842127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.06338656585972428</v>
+      </c>
+      <c r="I54">
+        <v>-0.0441468346571306</v>
+      </c>
+      <c r="J54">
+        <v>0.08164793590212616</v>
+      </c>
+      <c r="K54">
+        <v>-0.04833422061811304</v>
+      </c>
+      <c r="L54">
+        <v>0.0266232483573999</v>
+      </c>
+      <c r="M54">
+        <v>-0.07482568994916899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09281814809356818</v>
+        <v>-0.09006624094983533</v>
       </c>
       <c r="C55">
-        <v>0.007149710232999824</v>
+        <v>-0.03946855787215046</v>
       </c>
       <c r="D55">
-        <v>-0.03061207248533922</v>
+        <v>0.02543858484783441</v>
       </c>
       <c r="E55">
-        <v>0.004144168301564381</v>
+        <v>0.01051316668336816</v>
       </c>
       <c r="F55">
-        <v>0.04203839586555701</v>
+        <v>-0.006547481997490267</v>
       </c>
       <c r="G55">
-        <v>-0.2357585136108308</v>
+        <v>-0.1686849924996772</v>
       </c>
       <c r="H55">
-        <v>-0.03015248302322636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.0196496297480149</v>
+      </c>
+      <c r="I55">
+        <v>-0.0549025360232303</v>
+      </c>
+      <c r="J55">
+        <v>0.006113938162349519</v>
+      </c>
+      <c r="K55">
+        <v>0.03144972151983296</v>
+      </c>
+      <c r="L55">
+        <v>-0.05553288546670492</v>
+      </c>
+      <c r="M55">
+        <v>0.02406017811570696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1714903461591958</v>
+        <v>-0.1462049738892667</v>
       </c>
       <c r="C56">
-        <v>0.01911379334745444</v>
+        <v>-0.06897708334675166</v>
       </c>
       <c r="D56">
-        <v>-0.06830147975261666</v>
+        <v>0.03090595515039105</v>
       </c>
       <c r="E56">
-        <v>0.06429527571127489</v>
+        <v>0.008881746874334844</v>
       </c>
       <c r="F56">
-        <v>0.09889405667669435</v>
+        <v>0.03740250574096551</v>
       </c>
       <c r="G56">
-        <v>-0.214488935208573</v>
+        <v>-0.2432737055727925</v>
       </c>
       <c r="H56">
-        <v>-0.07195569236327155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1070537843045392</v>
+      </c>
+      <c r="I56">
+        <v>-0.06334812035426786</v>
+      </c>
+      <c r="J56">
+        <v>0.00669805064038777</v>
+      </c>
+      <c r="K56">
+        <v>0.0204256825435353</v>
+      </c>
+      <c r="L56">
+        <v>-0.06741292999715963</v>
+      </c>
+      <c r="M56">
+        <v>0.01229652443040677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.05118219425550388</v>
+        <v>-0.04156732291588137</v>
       </c>
       <c r="C58">
-        <v>0.03928516129822075</v>
+        <v>-0.03227227974423035</v>
       </c>
       <c r="D58">
-        <v>-0.03843034934847803</v>
+        <v>-0.08016249432296868</v>
       </c>
       <c r="E58">
-        <v>-0.291104801692978</v>
+        <v>0.0292932699618308</v>
       </c>
       <c r="F58">
-        <v>-0.1898247820052686</v>
+        <v>-0.02999318044151031</v>
       </c>
       <c r="G58">
-        <v>0.1143468360703264</v>
+        <v>0.0694499385052875</v>
       </c>
       <c r="H58">
-        <v>0.009988337089968786</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.2187824095378005</v>
+      </c>
+      <c r="I58">
+        <v>0.01303340330792883</v>
+      </c>
+      <c r="J58">
+        <v>-0.3347290979166987</v>
+      </c>
+      <c r="K58">
+        <v>-0.3920485256512675</v>
+      </c>
+      <c r="L58">
+        <v>0.3034971588797573</v>
+      </c>
+      <c r="M58">
+        <v>0.1585410483095991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2446642744100253</v>
+        <v>-0.2262335503961725</v>
       </c>
       <c r="C59">
-        <v>-0.4111902493523189</v>
+        <v>0.3073476067125914</v>
       </c>
       <c r="D59">
-        <v>-0.04775896537715121</v>
+        <v>0.03908441569470539</v>
       </c>
       <c r="E59">
-        <v>-0.0436301405899986</v>
+        <v>0.009095155279440976</v>
       </c>
       <c r="F59">
-        <v>0.08974987317956529</v>
+        <v>-0.02173354264733421</v>
       </c>
       <c r="G59">
-        <v>-0.001610958649822816</v>
+        <v>-0.0726308725784308</v>
       </c>
       <c r="H59">
-        <v>-0.00221259296906439</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.07907156436065628</v>
+      </c>
+      <c r="I59">
+        <v>0.05098708102801618</v>
+      </c>
+      <c r="J59">
+        <v>-0.003855651223140566</v>
+      </c>
+      <c r="K59">
+        <v>0.03467744349092693</v>
+      </c>
+      <c r="L59">
+        <v>0.02023366774936857</v>
+      </c>
+      <c r="M59">
+        <v>0.05228505328692596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2454991818672632</v>
+        <v>-0.2431349434192545</v>
       </c>
       <c r="C60">
-        <v>0.08186811562592095</v>
+        <v>-0.1151212201390786</v>
       </c>
       <c r="D60">
-        <v>-0.08977880533348788</v>
+        <v>0.06676978910212308</v>
       </c>
       <c r="E60">
-        <v>-0.00710203166555798</v>
+        <v>0.03833877767968791</v>
       </c>
       <c r="F60">
-        <v>0.007683630005283812</v>
+        <v>0.1061261802327734</v>
       </c>
       <c r="G60">
-        <v>0.0552102817212638</v>
+        <v>0.0699832116297907</v>
       </c>
       <c r="H60">
-        <v>0.08991050536087235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.09725157135918917</v>
+      </c>
+      <c r="I60">
+        <v>-0.1180687056689107</v>
+      </c>
+      <c r="J60">
+        <v>-0.09314906232040943</v>
+      </c>
+      <c r="K60">
+        <v>0.09498947683962324</v>
+      </c>
+      <c r="L60">
+        <v>-0.0001752989690558572</v>
+      </c>
+      <c r="M60">
+        <v>0.1704112668865872</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.07772050584341735</v>
+        <v>-0.08703969195296282</v>
       </c>
       <c r="C61">
-        <v>0.05686277388723297</v>
+        <v>-0.06167434534253259</v>
       </c>
       <c r="D61">
-        <v>-0.01867223948258327</v>
+        <v>0.03940283641579254</v>
       </c>
       <c r="E61">
-        <v>-0.01176512068636609</v>
+        <v>0.01931032877011235</v>
       </c>
       <c r="F61">
-        <v>-0.01317414866722822</v>
+        <v>-0.1122952414935873</v>
       </c>
       <c r="G61">
-        <v>-0.01950719154728089</v>
+        <v>-0.06160556111751455</v>
       </c>
       <c r="H61">
-        <v>-0.009019133877319944</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.04713476378516497</v>
+      </c>
+      <c r="I61">
+        <v>0.07641407227359422</v>
+      </c>
+      <c r="J61">
+        <v>-0.03490276063801683</v>
+      </c>
+      <c r="K61">
+        <v>-0.03503094831131871</v>
+      </c>
+      <c r="L61">
+        <v>-0.01301069706062315</v>
+      </c>
+      <c r="M61">
+        <v>-0.006573840186880949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1642075939012913</v>
+        <v>-0.1474628188415944</v>
       </c>
       <c r="C62">
-        <v>0.04744324365831656</v>
+        <v>-0.07606342145368698</v>
       </c>
       <c r="D62">
-        <v>-0.02191378574520262</v>
+        <v>0.03393851056373602</v>
       </c>
       <c r="E62">
-        <v>0.1146715906288355</v>
+        <v>-0.02770036046749507</v>
       </c>
       <c r="F62">
-        <v>0.1009895552362769</v>
+        <v>0.02359684815794576</v>
       </c>
       <c r="G62">
-        <v>-0.2416743694532728</v>
+        <v>-0.20323659325554</v>
       </c>
       <c r="H62">
-        <v>-0.04434206172807688</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.05785282692940261</v>
+      </c>
+      <c r="I62">
+        <v>-0.110967616901041</v>
+      </c>
+      <c r="J62">
+        <v>0.06551732415465869</v>
+      </c>
+      <c r="K62">
+        <v>0.07248927776645823</v>
+      </c>
+      <c r="L62">
+        <v>-0.08639414073257391</v>
+      </c>
+      <c r="M62">
+        <v>-0.08713611541859166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.04555905030837853</v>
+        <v>-0.04533804987286335</v>
       </c>
       <c r="C63">
-        <v>0.04762136869736094</v>
+        <v>-0.03072473402731079</v>
       </c>
       <c r="D63">
-        <v>-0.02263124015450254</v>
+        <v>0.005344737350204556</v>
       </c>
       <c r="E63">
-        <v>-0.005925033234699899</v>
+        <v>-0.005962497926298104</v>
       </c>
       <c r="F63">
-        <v>-0.01993390237869996</v>
+        <v>-0.06031496507754394</v>
       </c>
       <c r="G63">
-        <v>-0.04538933748222215</v>
+        <v>-0.008792477643923676</v>
       </c>
       <c r="H63">
-        <v>0.01535465356931473</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.05840511816970621</v>
+      </c>
+      <c r="I63">
+        <v>-0.03351392393720645</v>
+      </c>
+      <c r="J63">
+        <v>0.007949235461919422</v>
+      </c>
+      <c r="K63">
+        <v>-0.01984507985746627</v>
+      </c>
+      <c r="L63">
+        <v>-0.002717970184801715</v>
+      </c>
+      <c r="M63">
+        <v>-0.04131015452350916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1008512475754917</v>
+        <v>-0.1019068605303375</v>
       </c>
       <c r="C64">
-        <v>0.03353533634065491</v>
+        <v>-0.0485485303955974</v>
       </c>
       <c r="D64">
-        <v>-0.03721973997699268</v>
+        <v>-0.001766804509589314</v>
       </c>
       <c r="E64">
-        <v>-0.04080340984512681</v>
+        <v>0.04191385602645719</v>
       </c>
       <c r="F64">
-        <v>-0.03762360748875864</v>
+        <v>-0.05829805838757466</v>
       </c>
       <c r="G64">
-        <v>0.009482624117408004</v>
+        <v>0.01341016718909396</v>
       </c>
       <c r="H64">
-        <v>0.0181753513613099</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.04655550959437773</v>
+      </c>
+      <c r="I64">
+        <v>0.007423721866683264</v>
+      </c>
+      <c r="J64">
+        <v>-0.02685935990622836</v>
+      </c>
+      <c r="K64">
+        <v>-0.02762931023406663</v>
+      </c>
+      <c r="L64">
+        <v>-0.07459048632652072</v>
+      </c>
+      <c r="M64">
+        <v>-0.04610729145525429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1278097841559237</v>
+        <v>-0.1250517207238424</v>
       </c>
       <c r="C65">
-        <v>0.06238752996262492</v>
+        <v>-0.04076136961008763</v>
       </c>
       <c r="D65">
-        <v>-0.06788626929347034</v>
+        <v>0.01587783027028168</v>
       </c>
       <c r="E65">
-        <v>-0.08251415859365549</v>
+        <v>0.01071387600952684</v>
       </c>
       <c r="F65">
-        <v>-0.196009415040388</v>
+        <v>-0.02848847538530745</v>
       </c>
       <c r="G65">
-        <v>0.03746688649830018</v>
+        <v>0.2102461586339155</v>
       </c>
       <c r="H65">
-        <v>0.2269595767266392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.1097053265865771</v>
+      </c>
+      <c r="I65">
+        <v>-0.6502482933680653</v>
+      </c>
+      <c r="J65">
+        <v>0.01085611854505422</v>
+      </c>
+      <c r="K65">
+        <v>0.05094815180144828</v>
+      </c>
+      <c r="L65">
+        <v>0.1162721641695924</v>
+      </c>
+      <c r="M65">
+        <v>0.08024569314932234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.154267981693971</v>
+        <v>-0.1279110131594846</v>
       </c>
       <c r="C66">
-        <v>0.1457341767228666</v>
+        <v>-0.1299676416097398</v>
       </c>
       <c r="D66">
-        <v>-0.05337886578364376</v>
+        <v>0.09927079569071716</v>
       </c>
       <c r="E66">
-        <v>-0.005637999659401927</v>
+        <v>-0.004238452075013877</v>
       </c>
       <c r="F66">
-        <v>0.04689196553498555</v>
+        <v>-0.1626586878787526</v>
       </c>
       <c r="G66">
-        <v>-0.00825559609677017</v>
+        <v>-0.04483922475539138</v>
       </c>
       <c r="H66">
-        <v>0.03673801793868427</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.07861446258805234</v>
+      </c>
+      <c r="I66">
+        <v>0.2110692205885359</v>
+      </c>
+      <c r="J66">
+        <v>-0.1076562504528309</v>
+      </c>
+      <c r="K66">
+        <v>-0.05615681210921247</v>
+      </c>
+      <c r="L66">
+        <v>-0.08823021678468243</v>
+      </c>
+      <c r="M66">
+        <v>0.04916621946005138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07192983014087058</v>
+        <v>-0.08491248724401666</v>
       </c>
       <c r="C67">
-        <v>0.04453997089464333</v>
+        <v>-0.06683284008226703</v>
       </c>
       <c r="D67">
-        <v>-0.002057423870291124</v>
+        <v>-0.01745791234139749</v>
       </c>
       <c r="E67">
-        <v>-0.01485054569566534</v>
+        <v>0.03480758006038534</v>
       </c>
       <c r="F67">
-        <v>0.006199786667728268</v>
+        <v>0.02986846265100256</v>
       </c>
       <c r="G67">
-        <v>0.02599029258491413</v>
+        <v>-0.03942965032022853</v>
       </c>
       <c r="H67">
-        <v>-0.03196946668523687</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.1061983453746425</v>
+      </c>
+      <c r="I67">
+        <v>0.03853944848885728</v>
+      </c>
+      <c r="J67">
+        <v>0.04949533188712187</v>
+      </c>
+      <c r="K67">
+        <v>0.07538558696837563</v>
+      </c>
+      <c r="L67">
+        <v>-0.06116551449523785</v>
+      </c>
+      <c r="M67">
+        <v>0.01911577577152713</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.1037874376698141</v>
+        <v>-0.1213957712740226</v>
       </c>
       <c r="C68">
-        <v>-0.2604087106791724</v>
+        <v>0.2712779974215547</v>
       </c>
       <c r="D68">
-        <v>-0.005450322043474517</v>
+        <v>0.00319478659899243</v>
       </c>
       <c r="E68">
-        <v>-0.0173361002754596</v>
+        <v>0.002380991313299234</v>
       </c>
       <c r="F68">
-        <v>-0.005619212248420947</v>
+        <v>-0.01994325814873702</v>
       </c>
       <c r="G68">
-        <v>-0.02846844510006344</v>
+        <v>-0.02827568136352724</v>
       </c>
       <c r="H68">
-        <v>-0.02971885230892814</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.02765780302192569</v>
+      </c>
+      <c r="I68">
+        <v>-0.05309180906994115</v>
+      </c>
+      <c r="J68">
+        <v>-0.005451055391891351</v>
+      </c>
+      <c r="K68">
+        <v>-0.0198630330147721</v>
+      </c>
+      <c r="L68">
+        <v>-0.01237580610775228</v>
+      </c>
+      <c r="M68">
+        <v>-0.01421943480683023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04523703697974459</v>
+        <v>-0.04504289961885502</v>
       </c>
       <c r="C69">
-        <v>0.02445161599299953</v>
+        <v>-0.02305315711148085</v>
       </c>
       <c r="D69">
-        <v>-0.01201540524718694</v>
+        <v>-0.01316864577324096</v>
       </c>
       <c r="E69">
-        <v>-0.02382003136394206</v>
+        <v>-0.00410268799653659</v>
       </c>
       <c r="F69">
-        <v>0.04360742760879462</v>
+        <v>-0.01705916932990478</v>
       </c>
       <c r="G69">
-        <v>-0.02589368108572945</v>
+        <v>-0.03686498075971735</v>
       </c>
       <c r="H69">
-        <v>0.003182404257069793</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02281423938006829</v>
+      </c>
+      <c r="I69">
+        <v>-0.005008213011382285</v>
+      </c>
+      <c r="J69">
+        <v>-0.009575418787834246</v>
+      </c>
+      <c r="K69">
+        <v>0.007547861695976565</v>
+      </c>
+      <c r="L69">
+        <v>0.05616746893237532</v>
+      </c>
+      <c r="M69">
+        <v>-0.05310477966529775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.03237605113295</v>
+        <v>-0.05413716606457009</v>
       </c>
       <c r="C70">
-        <v>0.008809763871957936</v>
+        <v>-0.03422019643938658</v>
       </c>
       <c r="D70">
-        <v>0.01334150498988407</v>
+        <v>0.03100006773872939</v>
       </c>
       <c r="E70">
-        <v>-0.00893035866188208</v>
+        <v>0.0002945547939542415</v>
       </c>
       <c r="F70">
-        <v>-0.02433968834221079</v>
+        <v>0.01297598074080841</v>
       </c>
       <c r="G70">
-        <v>0.09661632206060401</v>
+        <v>0.0304093185684668</v>
       </c>
       <c r="H70">
-        <v>-0.04040560723660081</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.07498101959128921</v>
+      </c>
+      <c r="I70">
+        <v>0.05371788368661318</v>
+      </c>
+      <c r="J70">
+        <v>0.1814419863334579</v>
+      </c>
+      <c r="K70">
+        <v>-0.07055260933423045</v>
+      </c>
+      <c r="L70">
+        <v>0.1328382881764844</v>
+      </c>
+      <c r="M70">
+        <v>-0.08296830807606348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1053718923268759</v>
+        <v>-0.1347745922387064</v>
       </c>
       <c r="C71">
-        <v>-0.278894995367495</v>
+        <v>0.2811218765546444</v>
       </c>
       <c r="D71">
-        <v>-0.03887878104652164</v>
+        <v>0.006390310616404467</v>
       </c>
       <c r="E71">
-        <v>-0.002986533457153073</v>
+        <v>0.02516583856225632</v>
       </c>
       <c r="F71">
-        <v>-0.01119474815432753</v>
+        <v>-0.02270858802042233</v>
       </c>
       <c r="G71">
-        <v>0.00955858098485249</v>
+        <v>-0.01780548228023789</v>
       </c>
       <c r="H71">
-        <v>-0.01985909332482903</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02750970609333279</v>
+      </c>
+      <c r="I71">
+        <v>-0.0105524346776146</v>
+      </c>
+      <c r="J71">
+        <v>-0.009832088199576292</v>
+      </c>
+      <c r="K71">
+        <v>0.005361853987341763</v>
+      </c>
+      <c r="L71">
+        <v>-0.01017182585267057</v>
+      </c>
+      <c r="M71">
+        <v>-0.01110129065441037</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.186242378174143</v>
+        <v>-0.1449081642234259</v>
       </c>
       <c r="C72">
-        <v>0.02951794535884187</v>
+        <v>-0.03529238476143124</v>
       </c>
       <c r="D72">
-        <v>0.2114483617613704</v>
+        <v>-0.003645283068033293</v>
       </c>
       <c r="E72">
-        <v>0.02036776904763345</v>
+        <v>-0.1816203940392224</v>
       </c>
       <c r="F72">
-        <v>0.00599763108318685</v>
+        <v>-0.06023312714509287</v>
       </c>
       <c r="G72">
-        <v>-0.006038959192889852</v>
+        <v>-0.005738602147078191</v>
       </c>
       <c r="H72">
-        <v>0.1213157677578463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.05048273358876968</v>
+      </c>
+      <c r="I72">
+        <v>-0.1598653565765871</v>
+      </c>
+      <c r="J72">
+        <v>-0.03163754026280053</v>
+      </c>
+      <c r="K72">
+        <v>0.07934411253619574</v>
+      </c>
+      <c r="L72">
+        <v>-0.006561664636348583</v>
+      </c>
+      <c r="M72">
+        <v>0.009849324019086036</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2703412040089531</v>
+        <v>-0.2361871255520305</v>
       </c>
       <c r="C73">
-        <v>0.1772098443946443</v>
+        <v>-0.1555305486404117</v>
       </c>
       <c r="D73">
-        <v>-0.1719970858466462</v>
+        <v>0.1559809840169386</v>
       </c>
       <c r="E73">
-        <v>0.08176904269831929</v>
+        <v>0.08732717117784758</v>
       </c>
       <c r="F73">
-        <v>-0.1382736004755997</v>
+        <v>0.3796240001187678</v>
       </c>
       <c r="G73">
-        <v>0.1117282415902736</v>
+        <v>0.24235545758333</v>
       </c>
       <c r="H73">
-        <v>0.1645668127005691</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.02044292616769301</v>
+      </c>
+      <c r="I73">
+        <v>0.1250539151570449</v>
+      </c>
+      <c r="J73">
+        <v>-0.5113607753806614</v>
+      </c>
+      <c r="K73">
+        <v>0.1340950906833056</v>
+      </c>
+      <c r="L73">
+        <v>-0.1198038534825963</v>
+      </c>
+      <c r="M73">
+        <v>0.05477483714678644</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09031612474489793</v>
+        <v>-0.08857588191771176</v>
       </c>
       <c r="C74">
-        <v>0.02459602410465013</v>
+        <v>-0.065117090699765</v>
       </c>
       <c r="D74">
-        <v>-0.02248183952452831</v>
+        <v>0.008195889370622766</v>
       </c>
       <c r="E74">
-        <v>0.02189090669645731</v>
+        <v>-0.002835128625988642</v>
       </c>
       <c r="F74">
-        <v>-0.0258454029061839</v>
+        <v>0.03074358571037544</v>
       </c>
       <c r="G74">
-        <v>-0.1649613942979708</v>
+        <v>-0.1470571286603409</v>
       </c>
       <c r="H74">
-        <v>-0.02238934955640449</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.0006691857727130214</v>
+      </c>
+      <c r="I74">
+        <v>-0.02872479041748443</v>
+      </c>
+      <c r="J74">
+        <v>-0.04631655300137327</v>
+      </c>
+      <c r="K74">
+        <v>0.03595913694016344</v>
+      </c>
+      <c r="L74">
+        <v>-0.04034273982434646</v>
+      </c>
+      <c r="M74">
+        <v>-0.0421493136039985</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.1019323957720604</v>
+        <v>-0.09166520783230997</v>
       </c>
       <c r="C75">
-        <v>0.02299739553114371</v>
+        <v>-0.0505382346784608</v>
       </c>
       <c r="D75">
-        <v>-0.02542048035985647</v>
+        <v>0.009756081484600033</v>
       </c>
       <c r="E75">
-        <v>0.02326878543180883</v>
+        <v>-0.009794175636865746</v>
       </c>
       <c r="F75">
-        <v>0.08568798551472845</v>
+        <v>0.0216834271029045</v>
       </c>
       <c r="G75">
-        <v>-0.09331048371121471</v>
+        <v>-0.1260583599592314</v>
       </c>
       <c r="H75">
-        <v>-0.05439053930115149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.06528315593799555</v>
+      </c>
+      <c r="I75">
+        <v>-0.01363243271622254</v>
+      </c>
+      <c r="J75">
+        <v>0.01965606407988833</v>
+      </c>
+      <c r="K75">
+        <v>0.008689460312629359</v>
+      </c>
+      <c r="L75">
+        <v>0.06747150959422803</v>
+      </c>
+      <c r="M75">
+        <v>0.005759828842472123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1317921126596047</v>
+        <v>-0.103446519615346</v>
       </c>
       <c r="C76">
-        <v>0.0356690106347104</v>
+        <v>-0.07146039717159756</v>
       </c>
       <c r="D76">
-        <v>-0.02807324791949168</v>
+        <v>0.008520220461516563</v>
       </c>
       <c r="E76">
-        <v>0.01686068283919386</v>
+        <v>0.01074509438401373</v>
       </c>
       <c r="F76">
-        <v>0.07197518778923875</v>
+        <v>0.05448561636331352</v>
       </c>
       <c r="G76">
-        <v>-0.2352307745987311</v>
+        <v>-0.2243172683338077</v>
       </c>
       <c r="H76">
-        <v>-0.03867399731658921</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.05926356008541459</v>
+      </c>
+      <c r="I76">
+        <v>-0.06509456589727132</v>
+      </c>
+      <c r="J76">
+        <v>-0.004488507341150843</v>
+      </c>
+      <c r="K76">
+        <v>0.009684827947191705</v>
+      </c>
+      <c r="L76">
+        <v>-0.1236895286248618</v>
+      </c>
+      <c r="M76">
+        <v>0.04517577678147805</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07977389098646172</v>
+        <v>-0.07282097542737782</v>
       </c>
       <c r="C77">
-        <v>0.05833492951228817</v>
+        <v>-0.02359925151768988</v>
       </c>
       <c r="D77">
-        <v>0.06961169059989829</v>
+        <v>0.0007790961339143199</v>
       </c>
       <c r="E77">
-        <v>-0.3562247211237433</v>
+        <v>0.04821551775589849</v>
       </c>
       <c r="F77">
-        <v>0.5405410335406492</v>
+        <v>-0.4950062544656554</v>
       </c>
       <c r="G77">
-        <v>0.158901411763692</v>
+        <v>0.3316525802601447</v>
       </c>
       <c r="H77">
-        <v>0.5355188305098491</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.6562936567390726</v>
+      </c>
+      <c r="I77">
+        <v>-0.01235582642692188</v>
+      </c>
+      <c r="J77">
+        <v>-0.107271094117467</v>
+      </c>
+      <c r="K77">
+        <v>0.005152940721282669</v>
+      </c>
+      <c r="L77">
+        <v>-0.1866029593123011</v>
+      </c>
+      <c r="M77">
+        <v>-0.009165154315647774</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1219607539260616</v>
+        <v>-0.1615728029826619</v>
       </c>
       <c r="C78">
-        <v>0.08974864385964262</v>
+        <v>-0.1056366763186674</v>
       </c>
       <c r="D78">
-        <v>-0.01499667994602794</v>
+        <v>-0.1669824872735464</v>
       </c>
       <c r="E78">
-        <v>-0.1461597866504853</v>
+        <v>0.1081449327933284</v>
       </c>
       <c r="F78">
-        <v>-0.09016701701088639</v>
+        <v>-0.09099390940618386</v>
       </c>
       <c r="G78">
-        <v>0.03271411096295589</v>
+        <v>0.0925462985761315</v>
       </c>
       <c r="H78">
-        <v>-0.05318432656778833</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.1555688066295675</v>
+      </c>
+      <c r="I78">
+        <v>0.07746060894208748</v>
+      </c>
+      <c r="J78">
+        <v>0.2045996066008339</v>
+      </c>
+      <c r="K78">
+        <v>0.2126854072604633</v>
+      </c>
+      <c r="L78">
+        <v>0.05158443384163987</v>
+      </c>
+      <c r="M78">
+        <v>0.5887171433545031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1471132125781005</v>
+        <v>-0.137278366770029</v>
       </c>
       <c r="C79">
-        <v>0.05442267056565125</v>
+        <v>-0.07674187431076218</v>
       </c>
       <c r="D79">
-        <v>-0.03734981834071099</v>
+        <v>0.003435704560428995</v>
       </c>
       <c r="E79">
-        <v>0.03781667708224189</v>
+        <v>0.005785507749000066</v>
       </c>
       <c r="F79">
-        <v>0.09038895165194452</v>
+        <v>0.001139679966828297</v>
       </c>
       <c r="G79">
-        <v>-0.1473155961179412</v>
+        <v>-0.1756067412626966</v>
       </c>
       <c r="H79">
-        <v>-0.07303692436232813</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.06637917881341342</v>
+      </c>
+      <c r="I79">
+        <v>-0.06619903618808515</v>
+      </c>
+      <c r="J79">
+        <v>0.0243988713803813</v>
+      </c>
+      <c r="K79">
+        <v>0.0269943762113012</v>
+      </c>
+      <c r="L79">
+        <v>-0.01385632702702967</v>
+      </c>
+      <c r="M79">
+        <v>-0.05287367962603086</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.01621673939402352</v>
+        <v>-0.03794710576588754</v>
       </c>
       <c r="C80">
-        <v>-0.01037422237853147</v>
+        <v>-0.01532891434886673</v>
       </c>
       <c r="D80">
-        <v>0.008456492688261751</v>
+        <v>0.05290537272185969</v>
       </c>
       <c r="E80">
-        <v>0.003650162333726598</v>
+        <v>-0.002817385129732505</v>
       </c>
       <c r="F80">
-        <v>-0.04256034372746144</v>
+        <v>-0.005565655607369077</v>
       </c>
       <c r="G80">
-        <v>-0.01320256873462259</v>
+        <v>0.001352133335874655</v>
       </c>
       <c r="H80">
-        <v>0.04857125712871752</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.09510779058299861</v>
+      </c>
+      <c r="I80">
+        <v>0.005613505108386483</v>
+      </c>
+      <c r="J80">
+        <v>0.02786814690287628</v>
+      </c>
+      <c r="K80">
+        <v>0.006042225700976654</v>
+      </c>
+      <c r="L80">
+        <v>0.04801478694416053</v>
+      </c>
+      <c r="M80">
+        <v>-0.005563084222658261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1177417824033513</v>
+        <v>-0.1206006391150999</v>
       </c>
       <c r="C81">
-        <v>0.04382253056508802</v>
+        <v>-0.05199094737076906</v>
       </c>
       <c r="D81">
-        <v>-0.04395640833981387</v>
+        <v>0.003877080323236208</v>
       </c>
       <c r="E81">
-        <v>0.03578166970273595</v>
+        <v>0.004886636667159737</v>
       </c>
       <c r="F81">
-        <v>0.04321021611263117</v>
+        <v>-0.007193894436780999</v>
       </c>
       <c r="G81">
-        <v>-0.09663843297563487</v>
+        <v>-0.1766872133841833</v>
       </c>
       <c r="H81">
-        <v>-0.01728135094530073</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.02968124752840256</v>
+      </c>
+      <c r="I81">
+        <v>0.0004888429376676832</v>
+      </c>
+      <c r="J81">
+        <v>-0.01472413355473877</v>
+      </c>
+      <c r="K81">
+        <v>-0.01525662398330739</v>
+      </c>
+      <c r="L81">
+        <v>0.02976363441058357</v>
+      </c>
+      <c r="M81">
+        <v>-0.05810390853841826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.113684633422565</v>
+        <v>-0.1174893298338999</v>
       </c>
       <c r="C82">
-        <v>0.05013653557186133</v>
+        <v>-0.0586869781265229</v>
       </c>
       <c r="D82">
-        <v>-0.06465560360311468</v>
+        <v>0.02182075247361362</v>
       </c>
       <c r="E82">
-        <v>0.07796487351747382</v>
+        <v>-0.002877063485098849</v>
       </c>
       <c r="F82">
-        <v>0.1420988859161618</v>
+        <v>0.03330112679835359</v>
       </c>
       <c r="G82">
-        <v>-0.2420747316274584</v>
+        <v>-0.2530105381339479</v>
       </c>
       <c r="H82">
-        <v>-0.09143471668292712</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.06756693552552176</v>
+      </c>
+      <c r="I82">
+        <v>0.01717464182234473</v>
+      </c>
+      <c r="J82">
+        <v>0.03722374276074829</v>
+      </c>
+      <c r="K82">
+        <v>0.0257576128919972</v>
+      </c>
+      <c r="L82">
+        <v>-0.01905528451035203</v>
+      </c>
+      <c r="M82">
+        <v>-0.1452897095665468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.0498176601085379</v>
+        <v>-0.07475348336575538</v>
       </c>
       <c r="C83">
-        <v>0.02873727494050278</v>
+        <v>-0.05575893552972996</v>
       </c>
       <c r="D83">
-        <v>-0.0375539883359737</v>
+        <v>0.006932071596428628</v>
       </c>
       <c r="E83">
-        <v>0.01716071970133562</v>
+        <v>0.02624675451820791</v>
       </c>
       <c r="F83">
-        <v>0.0001533022677342564</v>
+        <v>0.0009713481232242594</v>
       </c>
       <c r="G83">
-        <v>0.1132638211848196</v>
+        <v>0.01436964375742596</v>
       </c>
       <c r="H83">
-        <v>-0.02403478676013169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.02249652533005883</v>
+      </c>
+      <c r="I83">
+        <v>0.05904639509644384</v>
+      </c>
+      <c r="J83">
+        <v>0.08176224947699666</v>
+      </c>
+      <c r="K83">
+        <v>-0.07543137653706719</v>
+      </c>
+      <c r="L83">
+        <v>0.06331340634137551</v>
+      </c>
+      <c r="M83">
+        <v>0.03464184601029249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05377214781212152</v>
+        <v>-0.0412472473734543</v>
       </c>
       <c r="C84">
-        <v>0.02219559912597023</v>
+        <v>0.02232846551991409</v>
       </c>
       <c r="D84">
-        <v>0.0133552823901309</v>
+        <v>0.0009431290306769934</v>
       </c>
       <c r="E84">
-        <v>0.01220314489851281</v>
+        <v>-0.03205585723152316</v>
       </c>
       <c r="F84">
-        <v>-0.1046713648436958</v>
+        <v>-0.02361913636770891</v>
       </c>
       <c r="G84">
-        <v>-0.02773894814840997</v>
+        <v>0.1340759152819423</v>
       </c>
       <c r="H84">
-        <v>-0.08060089386108618</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2475530742483019</v>
+      </c>
+      <c r="I84">
+        <v>0.1869064354172223</v>
+      </c>
+      <c r="J84">
+        <v>0.2250243592483578</v>
+      </c>
+      <c r="K84">
+        <v>0.1998763172700873</v>
+      </c>
+      <c r="L84">
+        <v>-0.3790068748509904</v>
+      </c>
+      <c r="M84">
+        <v>0.1130820713692242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.07888075008399099</v>
+        <v>-0.1077184380738889</v>
       </c>
       <c r="C85">
-        <v>0.03809371680618395</v>
+        <v>-0.05146207844454743</v>
       </c>
       <c r="D85">
-        <v>-0.05801535260639912</v>
+        <v>0.01856429302650697</v>
       </c>
       <c r="E85">
-        <v>0.01447074545314191</v>
+        <v>0.03504511797587374</v>
       </c>
       <c r="F85">
-        <v>0.05664497019937888</v>
+        <v>0.001500293293246127</v>
       </c>
       <c r="G85">
-        <v>-0.1724751579310469</v>
+        <v>-0.1820298691539109</v>
       </c>
       <c r="H85">
-        <v>-0.01415695940843116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.04980315278808931</v>
+      </c>
+      <c r="I85">
+        <v>-0.06396071240481545</v>
+      </c>
+      <c r="J85">
+        <v>0.01247718837013684</v>
+      </c>
+      <c r="K85">
+        <v>0.05623238422266252</v>
+      </c>
+      <c r="L85">
+        <v>-0.005840975444457756</v>
+      </c>
+      <c r="M85">
+        <v>-0.0420290385213631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.03781817628704785</v>
+        <v>-0.07397627436162406</v>
       </c>
       <c r="C86">
-        <v>0.0472683741423435</v>
+        <v>-0.02614746451785597</v>
       </c>
       <c r="D86">
-        <v>0.005168587285705834</v>
+        <v>-0.00755705291836873</v>
       </c>
       <c r="E86">
-        <v>-0.04535467754715834</v>
+        <v>0.04077535981097437</v>
       </c>
       <c r="F86">
-        <v>-0.01417865983093538</v>
+        <v>-0.08160261814729032</v>
       </c>
       <c r="G86">
-        <v>0.04039894871413836</v>
+        <v>0.1310946162193761</v>
       </c>
       <c r="H86">
-        <v>0.1058273649236368</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.1452090472268287</v>
+      </c>
+      <c r="I86">
+        <v>0.1502681429970041</v>
+      </c>
+      <c r="J86">
+        <v>0.2640482828323036</v>
+      </c>
+      <c r="K86">
+        <v>0.4397819329261792</v>
+      </c>
+      <c r="L86">
+        <v>0.07779398390177183</v>
+      </c>
+      <c r="M86">
+        <v>-0.05570062356901516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.0939767187151556</v>
+        <v>-0.1145744206597889</v>
       </c>
       <c r="C87">
-        <v>0.07742782937021808</v>
+        <v>-0.06998307452001146</v>
       </c>
       <c r="D87">
-        <v>-0.01405778094052685</v>
+        <v>-0.02965449084328079</v>
       </c>
       <c r="E87">
-        <v>-0.1414897224007275</v>
+        <v>0.03602650086467118</v>
       </c>
       <c r="F87">
-        <v>0.07203530581182162</v>
+        <v>-0.1523972399819373</v>
       </c>
       <c r="G87">
-        <v>0.04304714318219673</v>
+        <v>0.143798604900452</v>
       </c>
       <c r="H87">
-        <v>0.1148513169196452</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.0840593756784597</v>
+      </c>
+      <c r="I87">
+        <v>0.02600695786438592</v>
+      </c>
+      <c r="J87">
+        <v>0.02721568546949936</v>
+      </c>
+      <c r="K87">
+        <v>-0.0439826089928792</v>
+      </c>
+      <c r="L87">
+        <v>-0.09137893123802734</v>
+      </c>
+      <c r="M87">
+        <v>-0.116171452512631</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.04721552438908282</v>
+        <v>-0.05938334005000451</v>
       </c>
       <c r="C88">
-        <v>0.03701455276323223</v>
+        <v>-0.0544082464608901</v>
       </c>
       <c r="D88">
-        <v>-0.01836827985055427</v>
+        <v>0.02894932958816591</v>
       </c>
       <c r="E88">
-        <v>-0.005656915763987042</v>
+        <v>0.0178556103487597</v>
       </c>
       <c r="F88">
-        <v>-0.007765974574536858</v>
+        <v>-0.02957894674258085</v>
       </c>
       <c r="G88">
-        <v>0.02182827578207631</v>
+        <v>-0.01491313966397286</v>
       </c>
       <c r="H88">
-        <v>7.459085294729377e-05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.03569775462472463</v>
+      </c>
+      <c r="I88">
+        <v>0.02496915122292761</v>
+      </c>
+      <c r="J88">
+        <v>-0.006429498284711575</v>
+      </c>
+      <c r="K88">
+        <v>-0.01043234166033447</v>
+      </c>
+      <c r="L88">
+        <v>0.01888156396517471</v>
+      </c>
+      <c r="M88">
+        <v>0.006063826544367488</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1684407324364753</v>
+        <v>-0.2198846009763011</v>
       </c>
       <c r="C89">
-        <v>-0.314074992360539</v>
+        <v>0.3551374451773106</v>
       </c>
       <c r="D89">
-        <v>-0.07582483199695114</v>
+        <v>-0.04455249157607127</v>
       </c>
       <c r="E89">
-        <v>-0.09300691708435749</v>
+        <v>0.08921428760963883</v>
       </c>
       <c r="F89">
-        <v>-0.003627613085127148</v>
+        <v>-0.007214023182811937</v>
       </c>
       <c r="G89">
-        <v>0.04052873854605729</v>
+        <v>-0.004412615732257237</v>
       </c>
       <c r="H89">
-        <v>-0.02573541888681178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.02839830224919785</v>
+      </c>
+      <c r="I89">
+        <v>0.06700684744466856</v>
+      </c>
+      <c r="J89">
+        <v>-0.0270497898569598</v>
+      </c>
+      <c r="K89">
+        <v>-0.07378220774843074</v>
+      </c>
+      <c r="L89">
+        <v>0.08811552668500057</v>
+      </c>
+      <c r="M89">
+        <v>-0.0233338145225818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1263624171585642</v>
+        <v>-0.1483931864937928</v>
       </c>
       <c r="C90">
-        <v>-0.2726302040362091</v>
+        <v>0.2665448858308648</v>
       </c>
       <c r="D90">
-        <v>-0.009471297605370554</v>
+        <v>0.003619591641664123</v>
       </c>
       <c r="E90">
-        <v>-0.06884369724038331</v>
+        <v>0.02016352683272736</v>
       </c>
       <c r="F90">
-        <v>-0.005050456983951231</v>
+        <v>-0.03034808010540231</v>
       </c>
       <c r="G90">
-        <v>0.02793273892297759</v>
+        <v>0.02533371341202445</v>
       </c>
       <c r="H90">
-        <v>0.04327813248538707</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.01971200037210955</v>
+      </c>
+      <c r="I90">
+        <v>0.01019590903645651</v>
+      </c>
+      <c r="J90">
+        <v>-0.04855204298201667</v>
+      </c>
+      <c r="K90">
+        <v>-0.01038228866843502</v>
+      </c>
+      <c r="L90">
+        <v>-0.04038075153385073</v>
+      </c>
+      <c r="M90">
+        <v>0.04249121587723984</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08544304861821381</v>
+        <v>-0.07531437655943433</v>
       </c>
       <c r="C91">
-        <v>0.03291890419626331</v>
+        <v>-0.05207071522076012</v>
       </c>
       <c r="D91">
-        <v>-0.01970064462240864</v>
+        <v>-0.008074145820815507</v>
       </c>
       <c r="E91">
-        <v>-0.0001856049166356155</v>
+        <v>0.002720424140555986</v>
       </c>
       <c r="F91">
-        <v>0.03785141155961583</v>
+        <v>0.01921105945123179</v>
       </c>
       <c r="G91">
-        <v>-0.1062297612409205</v>
+        <v>-0.1052686833695896</v>
       </c>
       <c r="H91">
-        <v>-0.03527754155298104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.04030411035747855</v>
+      </c>
+      <c r="I91">
+        <v>-0.009619944825676453</v>
+      </c>
+      <c r="J91">
+        <v>-0.02043310825774183</v>
+      </c>
+      <c r="K91">
+        <v>-0.01482081666365751</v>
+      </c>
+      <c r="L91">
+        <v>0.008251742527879918</v>
+      </c>
+      <c r="M91">
+        <v>0.0345337514135681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1465055415265013</v>
+        <v>-0.1677368654646413</v>
       </c>
       <c r="C92">
-        <v>-0.3116334376617108</v>
+        <v>0.3058121602727151</v>
       </c>
       <c r="D92">
-        <v>-0.05798307554651719</v>
+        <v>-0.02930676721879375</v>
       </c>
       <c r="E92">
-        <v>-0.03022476198223265</v>
+        <v>0.04853569057382386</v>
       </c>
       <c r="F92">
-        <v>-0.05386105344745541</v>
+        <v>-0.0002060055001022802</v>
       </c>
       <c r="G92">
-        <v>0.004256063765868146</v>
+        <v>-0.02569745740147938</v>
       </c>
       <c r="H92">
-        <v>-0.05949038727375086</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03462352661800391</v>
+      </c>
+      <c r="I92">
+        <v>0.01676636355408799</v>
+      </c>
+      <c r="J92">
+        <v>-0.02217247792841039</v>
+      </c>
+      <c r="K92">
+        <v>2.250643139587587e-05</v>
+      </c>
+      <c r="L92">
+        <v>0.02020937647156847</v>
+      </c>
+      <c r="M92">
+        <v>-0.04001652387767807</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1380841256330891</v>
+        <v>-0.163991710411642</v>
       </c>
       <c r="C93">
-        <v>-0.251970838965403</v>
+        <v>0.2881136489336281</v>
       </c>
       <c r="D93">
-        <v>-0.02502613473678631</v>
+        <v>0.02372213351539515</v>
       </c>
       <c r="E93">
-        <v>-0.03483060086361524</v>
+        <v>0.005381057252544809</v>
       </c>
       <c r="F93">
-        <v>-0.009175245462604863</v>
+        <v>-0.01438844882312953</v>
       </c>
       <c r="G93">
-        <v>0.05574709242360503</v>
+        <v>0.003275642131749361</v>
       </c>
       <c r="H93">
-        <v>0.002684784785242572</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01567113867274971</v>
+      </c>
+      <c r="I93">
+        <v>0.01438539544819539</v>
+      </c>
+      <c r="J93">
+        <v>0.01314805807241595</v>
+      </c>
+      <c r="K93">
+        <v>-0.005968313946588865</v>
+      </c>
+      <c r="L93">
+        <v>-0.01623397291487041</v>
+      </c>
+      <c r="M93">
+        <v>0.008743921925349923</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.0893331888275759</v>
+        <v>-0.1059507458454857</v>
       </c>
       <c r="C94">
-        <v>0.06165163197386922</v>
+        <v>-0.07535370381381788</v>
       </c>
       <c r="D94">
-        <v>-0.02040864523505766</v>
+        <v>-0.01010783787941963</v>
       </c>
       <c r="E94">
-        <v>-0.005953828422658015</v>
+        <v>0.02231000658582255</v>
       </c>
       <c r="F94">
-        <v>0.06467086435629851</v>
+        <v>0.03954606420148096</v>
       </c>
       <c r="G94">
-        <v>-0.1330548330999033</v>
+        <v>-0.1343922617580584</v>
       </c>
       <c r="H94">
-        <v>-0.07801997654731652</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.02508480318069707</v>
+      </c>
+      <c r="I94">
+        <v>-0.01533169944262199</v>
+      </c>
+      <c r="J94">
+        <v>-0.006511654172012613</v>
+      </c>
+      <c r="K94">
+        <v>-0.0001442852594600003</v>
+      </c>
+      <c r="L94">
+        <v>0.05862675300305933</v>
+      </c>
+      <c r="M94">
+        <v>0.01796511870830692</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.09921827883985498</v>
+        <v>-0.1364253037088536</v>
       </c>
       <c r="C95">
-        <v>0.1047552926631218</v>
+        <v>-0.07944592328748434</v>
       </c>
       <c r="D95">
-        <v>-0.08621672383841339</v>
+        <v>-0.00387825076999197</v>
       </c>
       <c r="E95">
-        <v>-0.00923463138799204</v>
+        <v>0.06701423446731229</v>
       </c>
       <c r="F95">
-        <v>-0.06637578978654772</v>
+        <v>-0.0558170291175832</v>
       </c>
       <c r="G95">
-        <v>0.009176977277388493</v>
+        <v>0.1961485076120052</v>
       </c>
       <c r="H95">
-        <v>0.06499154050752906</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1548606268806565</v>
+      </c>
+      <c r="I95">
+        <v>0.006425193384546096</v>
+      </c>
+      <c r="J95">
+        <v>0.002895299738832823</v>
+      </c>
+      <c r="K95">
+        <v>0.1452678177268374</v>
+      </c>
+      <c r="L95">
+        <v>0.204122745919115</v>
+      </c>
+      <c r="M95">
+        <v>-0.5726769068623911</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.3155625750430138</v>
+        <v>-0.1757568867229827</v>
       </c>
       <c r="C97">
-        <v>0.02249206767315692</v>
+        <v>-0.007579249531528117</v>
       </c>
       <c r="D97">
-        <v>0.8602889500685885</v>
+        <v>-0.1115370441691359</v>
       </c>
       <c r="E97">
-        <v>0.1971677852501907</v>
+        <v>-0.9341208070882223</v>
       </c>
       <c r="F97">
-        <v>-0.09825133077138125</v>
+        <v>-0.04473489674692066</v>
       </c>
       <c r="G97">
-        <v>0.04273577191539746</v>
+        <v>0.07272345227583989</v>
       </c>
       <c r="H97">
-        <v>0.05159659270021281</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.04277682161551895</v>
+      </c>
+      <c r="I97">
+        <v>0.05726816843075765</v>
+      </c>
+      <c r="J97">
+        <v>-0.04436747399542332</v>
+      </c>
+      <c r="K97">
+        <v>-0.000615770973770016</v>
+      </c>
+      <c r="L97">
+        <v>0.02641052020136514</v>
+      </c>
+      <c r="M97">
+        <v>0.006746239057006917</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2606849847192716</v>
+        <v>-0.2597612542925471</v>
       </c>
       <c r="C98">
-        <v>0.1097193154814992</v>
+        <v>-0.1210970366545273</v>
       </c>
       <c r="D98">
-        <v>-0.1751544108243987</v>
+        <v>0.0270735838316105</v>
       </c>
       <c r="E98">
-        <v>0.3145852610575837</v>
+        <v>0.007962807850023828</v>
       </c>
       <c r="F98">
-        <v>-0.1069115344563362</v>
+        <v>0.4246664180022354</v>
       </c>
       <c r="G98">
-        <v>0.521348989160662</v>
+        <v>0.2697601486316489</v>
       </c>
       <c r="H98">
-        <v>-0.2489146264978592</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.1524306828942507</v>
+      </c>
+      <c r="I98">
+        <v>0.0903491877556597</v>
+      </c>
+      <c r="J98">
+        <v>0.4599367356901936</v>
+      </c>
+      <c r="K98">
+        <v>-0.4987781863415734</v>
+      </c>
+      <c r="L98">
+        <v>-0.08265868011073378</v>
+      </c>
+      <c r="M98">
+        <v>-0.0631567346189628</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06372668357927269</v>
+        <v>-0.07358661900071931</v>
       </c>
       <c r="C99">
-        <v>0.0760916349181353</v>
+        <v>-0.06263471315662186</v>
       </c>
       <c r="D99">
-        <v>0.05670693118545372</v>
+        <v>-0.02950164756313379</v>
       </c>
       <c r="E99">
-        <v>-0.05446598702019247</v>
+        <v>0.009005577861431779</v>
       </c>
       <c r="F99">
-        <v>0.6123466262957792</v>
+        <v>-0.008699995715165273</v>
       </c>
       <c r="G99">
-        <v>0.3135522165604008</v>
+        <v>-0.05682243291771177</v>
       </c>
       <c r="H99">
-        <v>-0.4870555952971656</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.31790438604994</v>
+      </c>
+      <c r="I99">
+        <v>0.2404070459018411</v>
+      </c>
+      <c r="J99">
+        <v>0.1279292367911803</v>
+      </c>
+      <c r="K99">
+        <v>0.07322068668284934</v>
+      </c>
+      <c r="L99">
+        <v>0.6457070282055456</v>
+      </c>
+      <c r="M99">
+        <v>0.1852425849851956</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.04622023081723175</v>
+        <v>-0.04531784065435765</v>
       </c>
       <c r="C101">
-        <v>0.007597679595097521</v>
+        <v>-0.02202416148163242</v>
       </c>
       <c r="D101">
-        <v>-0.01099096198412721</v>
+        <v>0.0004524989807090244</v>
       </c>
       <c r="E101">
-        <v>-0.03015791925062166</v>
+        <v>0.01975028771454493</v>
       </c>
       <c r="F101">
-        <v>-0.03784865497787789</v>
+        <v>-0.04824419700159124</v>
       </c>
       <c r="G101">
-        <v>-0.01878284392331601</v>
+        <v>-0.05339167362159338</v>
       </c>
       <c r="H101">
-        <v>0.009659050671516249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.04725083581082461</v>
+      </c>
+      <c r="I101">
+        <v>-0.02124440457460536</v>
+      </c>
+      <c r="J101">
+        <v>0.02260361717330003</v>
+      </c>
+      <c r="K101">
+        <v>-0.02213177869202916</v>
+      </c>
+      <c r="L101">
+        <v>-0.01878248048013654</v>
+      </c>
+      <c r="M101">
+        <v>-0.01635664754049941</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
